--- a/data/miscellaneousMonitoring/2025Chltoocomparison.xlsx
+++ b/data/miscellaneousMonitoring/2025Chltoocomparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/miscellaneousMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F5A551-AA99-244D-B550-8BBA0CF4EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E2F38-F800-BD4D-96F3-4D47B0AF90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="645">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1967,7 +1967,10 @@
     <t>minolta</t>
   </si>
   <si>
-    <t>rieseberg</t>
+    <t>ccm200plus</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -2009,10 +2012,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,11 +2085,11 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260360</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>10414</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -2106,7 +2108,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -2173,7 +2175,7 @@
   <autoFilter ref="A1:H617" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2184,8 +2186,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="genus" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="species" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Note" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D1AAA09E-DB45-B94D-A398-7A665014E253}" name="minolta" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4EA42D90-9E41-F042-AD8D-16A119749571}" name="rieseberg" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{D1AAA09E-DB45-B94D-A398-7A665014E253}" name="ccm200plus" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4EA42D90-9E41-F042-AD8D-16A119749571}" name="minolta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2471,9 +2473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <selection pane="topRight" activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2504,13 +2506,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2526,10 +2528,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2545,10 +2545,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2564,10 +2562,8 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2583,10 +2579,8 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2602,10 +2596,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2621,10 +2613,14 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>5.5</v>
+      </c>
+      <c r="H7">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2640,10 +2636,14 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>8.1</v>
+      </c>
+      <c r="H8">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2659,10 +2659,14 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>6.3</v>
+      </c>
+      <c r="H9">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2678,10 +2682,14 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>5.9</v>
+      </c>
+      <c r="H10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2697,8 +2705,12 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11">
+        <v>5.4</v>
+      </c>
+      <c r="H11">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2716,8 +2728,6 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2735,8 +2745,6 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2754,8 +2762,6 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2773,8 +2779,6 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2792,10 +2796,8 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2811,10 +2813,8 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2830,10 +2830,8 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2849,10 +2847,8 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2868,10 +2864,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2887,10 +2881,8 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2906,10 +2898,14 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>3.7</v>
+      </c>
+      <c r="H22">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2925,10 +2921,14 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>5.3</v>
+      </c>
+      <c r="H23">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2944,10 +2944,14 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>4.8</v>
+      </c>
+      <c r="H24">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2963,10 +2967,14 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>4.3</v>
+      </c>
+      <c r="H25">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2982,8 +2990,12 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26">
+        <v>6.6</v>
+      </c>
+      <c r="H26">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3001,8 +3013,6 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3020,8 +3030,6 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -3039,8 +3047,6 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3058,8 +3064,6 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3077,10 +3081,8 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3096,10 +3098,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3115,10 +3115,8 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3134,10 +3132,8 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3153,10 +3149,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3172,10 +3166,8 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3191,10 +3183,14 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>4.7</v>
+      </c>
+      <c r="H37">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3210,10 +3206,14 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>8.1</v>
+      </c>
+      <c r="H38">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3229,10 +3229,14 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>6.5</v>
+      </c>
+      <c r="H39">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3248,10 +3252,14 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>6.4</v>
+      </c>
+      <c r="H40">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3267,8 +3275,12 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41">
+        <v>6.6</v>
+      </c>
+      <c r="H41">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -3286,8 +3298,6 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -3305,8 +3315,6 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3324,8 +3332,6 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3343,8 +3349,6 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -3362,10 +3366,8 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3381,10 +3383,8 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3400,10 +3400,8 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3419,10 +3417,8 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3438,10 +3434,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3457,10 +3451,8 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3476,10 +3468,14 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3495,10 +3491,14 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H53">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3514,10 +3514,14 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>7.3</v>
+      </c>
+      <c r="H54">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3533,10 +3537,14 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H55">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3552,8 +3560,12 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56">
+        <v>8.4</v>
+      </c>
+      <c r="H56">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -3571,8 +3583,6 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -3590,8 +3600,6 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -3609,8 +3617,6 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -3628,8 +3634,6 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -3647,10 +3651,8 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3666,10 +3668,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3685,10 +3685,8 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3704,10 +3702,8 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3723,10 +3719,8 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3742,10 +3736,8 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3761,10 +3753,14 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>6.6</v>
+      </c>
+      <c r="H67">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3780,10 +3776,14 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -3799,10 +3799,14 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3818,10 +3822,14 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H70">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3837,8 +3845,12 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="G71">
+        <v>6.9</v>
+      </c>
+      <c r="H71">
+        <v>22</v>
+      </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -3856,8 +3868,6 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -3875,8 +3885,6 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -3894,8 +3902,6 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -3913,8 +3919,6 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -3932,10 +3936,8 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -3951,10 +3953,8 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3970,10 +3970,8 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3989,10 +3987,8 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4008,10 +4004,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4027,10 +4021,8 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4046,10 +4038,14 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>8.4</v>
+      </c>
+      <c r="H82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4065,10 +4061,14 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>5.6</v>
+      </c>
+      <c r="H83">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4084,10 +4084,14 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>7.2</v>
+      </c>
+      <c r="H84">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4103,10 +4107,14 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>7.7</v>
+      </c>
+      <c r="H85">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4122,8 +4130,12 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="G86">
+        <v>7.1</v>
+      </c>
+      <c r="H86">
+        <v>23</v>
+      </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -4141,8 +4153,6 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -4160,8 +4170,6 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -4179,8 +4187,6 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -4198,8 +4204,6 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -4217,10 +4221,8 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4236,10 +4238,8 @@
       <c r="E92" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4255,10 +4255,8 @@
       <c r="E93" t="s">
         <v>106</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4274,10 +4272,8 @@
       <c r="E94" t="s">
         <v>106</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4293,10 +4289,8 @@
       <c r="E95" t="s">
         <v>106</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4312,10 +4306,8 @@
       <c r="E96" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4331,10 +4323,14 @@
       <c r="E97" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H97">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4350,10 +4346,14 @@
       <c r="E98" t="s">
         <v>106</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>6.3</v>
+      </c>
+      <c r="H98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4369,10 +4369,14 @@
       <c r="E99" t="s">
         <v>106</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>29.9</v>
+      </c>
+      <c r="H99">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4388,10 +4392,14 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>7.3</v>
+      </c>
+      <c r="H100">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4407,8 +4415,12 @@
       <c r="E101" t="s">
         <v>106</v>
       </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -4426,8 +4438,6 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -4445,8 +4455,6 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -4464,8 +4472,6 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -4483,8 +4489,6 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -4502,10 +4506,8 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4521,10 +4523,8 @@
       <c r="E107" t="s">
         <v>106</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4540,10 +4540,8 @@
       <c r="E108" t="s">
         <v>106</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -4559,10 +4557,8 @@
       <c r="E109" t="s">
         <v>106</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -4578,10 +4574,8 @@
       <c r="E110" t="s">
         <v>106</v>
       </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -4597,10 +4591,8 @@
       <c r="E111" t="s">
         <v>106</v>
       </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -4616,10 +4608,14 @@
       <c r="E112" t="s">
         <v>106</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>5.7</v>
+      </c>
+      <c r="H112">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -4635,10 +4631,14 @@
       <c r="E113" t="s">
         <v>106</v>
       </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>8.5</v>
+      </c>
+      <c r="H113">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -4654,10 +4654,14 @@
       <c r="E114" t="s">
         <v>106</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>5.9</v>
+      </c>
+      <c r="H114">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -4673,10 +4677,14 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>4</v>
+      </c>
+      <c r="H115">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -4692,8 +4700,12 @@
       <c r="E116" t="s">
         <v>106</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="G116">
+        <v>13.5</v>
+      </c>
+      <c r="H116">
+        <v>35.4</v>
+      </c>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -4711,8 +4723,6 @@
       <c r="E117" t="s">
         <v>106</v>
       </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -4730,8 +4740,6 @@
       <c r="E118" t="s">
         <v>106</v>
       </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -4749,8 +4757,6 @@
       <c r="E119" t="s">
         <v>106</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -4768,8 +4774,6 @@
       <c r="E120" t="s">
         <v>106</v>
       </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -4787,10 +4791,8 @@
       <c r="E121" t="s">
         <v>106</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -4806,10 +4808,8 @@
       <c r="E122" t="s">
         <v>106</v>
       </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -4825,10 +4825,8 @@
       <c r="E123" t="s">
         <v>106</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -4844,10 +4842,8 @@
       <c r="E124" t="s">
         <v>106</v>
       </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -4863,10 +4859,8 @@
       <c r="E125" t="s">
         <v>106</v>
       </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -4882,10 +4876,8 @@
       <c r="E126" t="s">
         <v>106</v>
       </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -4901,10 +4893,14 @@
       <c r="E127" t="s">
         <v>106</v>
       </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>5.9</v>
+      </c>
+      <c r="H127">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -4920,10 +4916,14 @@
       <c r="E128" t="s">
         <v>106</v>
       </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>6.6</v>
+      </c>
+      <c r="H128">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -4939,10 +4939,14 @@
       <c r="E129" t="s">
         <v>106</v>
       </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>12.9</v>
+      </c>
+      <c r="H129">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -4958,10 +4962,14 @@
       <c r="E130" t="s">
         <v>106</v>
       </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H130">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -4977,8 +4985,12 @@
       <c r="E131" t="s">
         <v>106</v>
       </c>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="G131">
+        <v>7.1</v>
+      </c>
+      <c r="H131">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -4996,8 +5008,6 @@
       <c r="E132" t="s">
         <v>106</v>
       </c>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -5015,8 +5025,6 @@
       <c r="E133" t="s">
         <v>106</v>
       </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -5034,8 +5042,6 @@
       <c r="E134" t="s">
         <v>106</v>
       </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -5053,8 +5059,6 @@
       <c r="E135" t="s">
         <v>106</v>
       </c>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -5072,10 +5076,8 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -5091,10 +5093,8 @@
       <c r="E137" t="s">
         <v>106</v>
       </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -5110,10 +5110,8 @@
       <c r="E138" t="s">
         <v>106</v>
       </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -5129,10 +5127,8 @@
       <c r="E139" t="s">
         <v>106</v>
       </c>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -5148,10 +5144,8 @@
       <c r="E140" t="s">
         <v>106</v>
       </c>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -5167,10 +5161,8 @@
       <c r="E141" t="s">
         <v>106</v>
       </c>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -5186,10 +5178,14 @@
       <c r="E142" t="s">
         <v>106</v>
       </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>10.1</v>
+      </c>
+      <c r="H142">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -5205,10 +5201,14 @@
       <c r="E143" t="s">
         <v>106</v>
       </c>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>6</v>
+      </c>
+      <c r="H143">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -5224,10 +5224,14 @@
       <c r="E144" t="s">
         <v>106</v>
       </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H144">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -5243,10 +5247,14 @@
       <c r="E145" t="s">
         <v>106</v>
       </c>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>11.1</v>
+      </c>
+      <c r="H145">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -5262,8 +5270,12 @@
       <c r="E146" t="s">
         <v>106</v>
       </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="G146">
+        <v>17.3</v>
+      </c>
+      <c r="H146">
+        <v>38.299999999999997</v>
+      </c>
     </row>
     <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -5281,8 +5293,6 @@
       <c r="E147" t="s">
         <v>106</v>
       </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -5300,8 +5310,6 @@
       <c r="E148" t="s">
         <v>106</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -5319,8 +5327,6 @@
       <c r="E149" t="s">
         <v>106</v>
       </c>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -5338,8 +5344,6 @@
       <c r="E150" t="s">
         <v>106</v>
       </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -5357,10 +5361,8 @@
       <c r="E151" t="s">
         <v>106</v>
       </c>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -5376,10 +5378,8 @@
       <c r="E152" t="s">
         <v>106</v>
       </c>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -5395,10 +5395,8 @@
       <c r="E153" t="s">
         <v>106</v>
       </c>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -5414,10 +5412,8 @@
       <c r="E154" t="s">
         <v>106</v>
       </c>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -5433,10 +5429,8 @@
       <c r="E155" t="s">
         <v>106</v>
       </c>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -5452,10 +5446,8 @@
       <c r="E156" t="s">
         <v>106</v>
       </c>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -5471,10 +5463,14 @@
       <c r="E157" t="s">
         <v>106</v>
       </c>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>11.6</v>
+      </c>
+      <c r="H157">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -5490,10 +5486,14 @@
       <c r="E158" t="s">
         <v>106</v>
       </c>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>13</v>
+      </c>
+      <c r="H158">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -5509,10 +5509,14 @@
       <c r="E159" t="s">
         <v>106</v>
       </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>12.5</v>
+      </c>
+      <c r="H159">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -5528,10 +5532,14 @@
       <c r="E160" t="s">
         <v>106</v>
       </c>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>8.1</v>
+      </c>
+      <c r="H160">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -5547,8 +5555,12 @@
       <c r="E161" t="s">
         <v>106</v>
       </c>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
+      <c r="G161">
+        <v>11</v>
+      </c>
+      <c r="H161">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -5566,8 +5578,6 @@
       <c r="E162" t="s">
         <v>106</v>
       </c>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -5585,8 +5595,6 @@
       <c r="E163" t="s">
         <v>106</v>
       </c>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -5604,8 +5612,6 @@
       <c r="E164" t="s">
         <v>106</v>
       </c>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -5623,8 +5629,6 @@
       <c r="E165" t="s">
         <v>106</v>
       </c>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -5642,10 +5646,8 @@
       <c r="E166" t="s">
         <v>106</v>
       </c>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -5661,10 +5663,8 @@
       <c r="E167" t="s">
         <v>106</v>
       </c>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -5680,10 +5680,8 @@
       <c r="E168" t="s">
         <v>106</v>
       </c>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -5699,10 +5697,8 @@
       <c r="E169" t="s">
         <v>106</v>
       </c>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -5718,10 +5714,8 @@
       <c r="E170" t="s">
         <v>106</v>
       </c>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -5737,10 +5731,8 @@
       <c r="E171" t="s">
         <v>106</v>
       </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -5756,10 +5748,14 @@
       <c r="E172" t="s">
         <v>106</v>
       </c>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>6.6</v>
+      </c>
+      <c r="H172">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -5775,10 +5771,14 @@
       <c r="E173" t="s">
         <v>106</v>
       </c>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H173">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -5794,10 +5794,14 @@
       <c r="E174" t="s">
         <v>106</v>
       </c>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>9.1</v>
+      </c>
+      <c r="H174">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -5813,10 +5817,14 @@
       <c r="E175" t="s">
         <v>106</v>
       </c>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H175">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -5832,10 +5840,14 @@
       <c r="E176" t="s">
         <v>106</v>
       </c>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>10.6</v>
+      </c>
+      <c r="H176">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -5851,10 +5863,8 @@
       <c r="E177" t="s">
         <v>106</v>
       </c>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -5870,10 +5880,8 @@
       <c r="E178" t="s">
         <v>106</v>
       </c>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -5889,10 +5897,8 @@
       <c r="E179" t="s">
         <v>106</v>
       </c>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-    </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -5908,10 +5914,8 @@
       <c r="E180" t="s">
         <v>106</v>
       </c>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -5927,10 +5931,8 @@
       <c r="E181" t="s">
         <v>106</v>
       </c>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -5946,10 +5948,8 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -5965,10 +5965,8 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -5984,10 +5982,8 @@
       <c r="E184" t="s">
         <v>198</v>
       </c>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -6003,10 +5999,8 @@
       <c r="E185" t="s">
         <v>198</v>
       </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -6022,10 +6016,8 @@
       <c r="E186" t="s">
         <v>198</v>
       </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-    </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -6041,10 +6033,8 @@
       <c r="E187" t="s">
         <v>198</v>
       </c>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-    </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -6060,10 +6050,8 @@
       <c r="E188" t="s">
         <v>198</v>
       </c>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-    </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -6079,10 +6067,8 @@
       <c r="E189" t="s">
         <v>198</v>
       </c>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-    </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -6098,10 +6084,8 @@
       <c r="E190" t="s">
         <v>198</v>
       </c>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-    </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -6117,10 +6101,8 @@
       <c r="E191" t="s">
         <v>198</v>
       </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -6136,10 +6118,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-    </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -6155,10 +6135,8 @@
       <c r="E193" t="s">
         <v>198</v>
       </c>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -6174,10 +6152,8 @@
       <c r="E194" t="s">
         <v>198</v>
       </c>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-    </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -6193,10 +6169,8 @@
       <c r="E195" t="s">
         <v>198</v>
       </c>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -6212,10 +6186,8 @@
       <c r="E196" t="s">
         <v>198</v>
       </c>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -6231,10 +6203,8 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -6250,10 +6220,8 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -6269,10 +6237,8 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -6288,10 +6254,8 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -6307,10 +6271,8 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -6326,10 +6288,8 @@
       <c r="E202" t="s">
         <v>198</v>
       </c>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-    </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -6345,10 +6305,8 @@
       <c r="E203" t="s">
         <v>198</v>
       </c>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -6364,10 +6322,8 @@
       <c r="E204" t="s">
         <v>198</v>
       </c>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -6383,10 +6339,8 @@
       <c r="E205" t="s">
         <v>198</v>
       </c>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -6402,10 +6356,8 @@
       <c r="E206" t="s">
         <v>198</v>
       </c>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-    </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -6421,10 +6373,8 @@
       <c r="E207" t="s">
         <v>198</v>
       </c>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
-    </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -6440,10 +6390,8 @@
       <c r="E208" t="s">
         <v>198</v>
       </c>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
-    </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -6459,10 +6407,8 @@
       <c r="E209" t="s">
         <v>198</v>
       </c>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-    </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -6478,10 +6424,8 @@
       <c r="E210" t="s">
         <v>198</v>
       </c>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-    </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -6497,10 +6441,8 @@
       <c r="E211" t="s">
         <v>198</v>
       </c>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -6516,10 +6458,8 @@
       <c r="E212" t="s">
         <v>198</v>
       </c>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -6535,10 +6475,8 @@
       <c r="E213" t="s">
         <v>198</v>
       </c>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -6554,10 +6492,8 @@
       <c r="E214" t="s">
         <v>198</v>
       </c>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -6573,10 +6509,8 @@
       <c r="E215" t="s">
         <v>198</v>
       </c>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -6592,10 +6526,8 @@
       <c r="E216" t="s">
         <v>198</v>
       </c>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-    </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -6611,10 +6543,8 @@
       <c r="E217" t="s">
         <v>198</v>
       </c>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -6630,10 +6560,8 @@
       <c r="E218" t="s">
         <v>198</v>
       </c>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -6649,10 +6577,8 @@
       <c r="E219" t="s">
         <v>198</v>
       </c>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -6668,10 +6594,8 @@
       <c r="E220" t="s">
         <v>198</v>
       </c>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -6687,10 +6611,8 @@
       <c r="E221" t="s">
         <v>198</v>
       </c>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -6706,10 +6628,8 @@
       <c r="E222" t="s">
         <v>198</v>
       </c>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-    </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -6725,10 +6645,8 @@
       <c r="E223" t="s">
         <v>198</v>
       </c>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-    </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -6744,10 +6662,8 @@
       <c r="E224" t="s">
         <v>198</v>
       </c>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-    </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -6763,10 +6679,8 @@
       <c r="E225" t="s">
         <v>198</v>
       </c>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-    </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -6782,10 +6696,8 @@
       <c r="E226" t="s">
         <v>198</v>
       </c>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -6801,10 +6713,8 @@
       <c r="E227" t="s">
         <v>198</v>
       </c>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -6820,10 +6730,8 @@
       <c r="E228" t="s">
         <v>198</v>
       </c>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -6839,10 +6747,8 @@
       <c r="E229" t="s">
         <v>198</v>
       </c>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -6858,10 +6764,8 @@
       <c r="E230" t="s">
         <v>198</v>
       </c>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -6877,10 +6781,8 @@
       <c r="E231" t="s">
         <v>198</v>
       </c>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-    </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -6896,10 +6798,8 @@
       <c r="E232" t="s">
         <v>198</v>
       </c>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-    </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -6915,10 +6815,8 @@
       <c r="E233" t="s">
         <v>198</v>
       </c>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-    </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -6934,10 +6832,8 @@
       <c r="E234" t="s">
         <v>198</v>
       </c>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-    </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -6953,10 +6849,8 @@
       <c r="E235" t="s">
         <v>198</v>
       </c>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-    </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -6972,10 +6866,8 @@
       <c r="E236" t="s">
         <v>198</v>
       </c>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-    </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -6991,10 +6883,8 @@
       <c r="E237" t="s">
         <v>198</v>
       </c>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-    </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -7010,10 +6900,8 @@
       <c r="E238" t="s">
         <v>198</v>
       </c>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-    </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -7029,10 +6917,8 @@
       <c r="E239" t="s">
         <v>198</v>
       </c>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-    </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -7048,10 +6934,8 @@
       <c r="E240" t="s">
         <v>198</v>
       </c>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-    </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -7067,10 +6951,8 @@
       <c r="E241" t="s">
         <v>198</v>
       </c>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -7086,10 +6968,8 @@
       <c r="E242" t="s">
         <v>198</v>
       </c>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -7105,10 +6985,8 @@
       <c r="E243" t="s">
         <v>198</v>
       </c>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -7124,10 +7002,8 @@
       <c r="E244" t="s">
         <v>198</v>
       </c>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -7143,10 +7019,8 @@
       <c r="E245" t="s">
         <v>198</v>
       </c>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -7162,10 +7036,8 @@
       <c r="E246" t="s">
         <v>198</v>
       </c>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-    </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -7181,10 +7053,8 @@
       <c r="E247" t="s">
         <v>198</v>
       </c>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-    </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -7200,10 +7070,8 @@
       <c r="E248" t="s">
         <v>198</v>
       </c>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-    </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -7219,10 +7087,8 @@
       <c r="E249" t="s">
         <v>198</v>
       </c>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-    </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -7238,10 +7104,8 @@
       <c r="E250" t="s">
         <v>198</v>
       </c>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-    </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -7257,10 +7121,8 @@
       <c r="E251" t="s">
         <v>198</v>
       </c>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-    </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -7276,10 +7138,8 @@
       <c r="E252" t="s">
         <v>198</v>
       </c>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-    </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -7295,10 +7155,8 @@
       <c r="E253" t="s">
         <v>198</v>
       </c>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-    </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -7314,10 +7172,8 @@
       <c r="E254" t="s">
         <v>198</v>
       </c>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-    </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -7333,10 +7189,8 @@
       <c r="E255" t="s">
         <v>198</v>
       </c>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-    </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -7352,10 +7206,8 @@
       <c r="E256" t="s">
         <v>198</v>
       </c>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -7371,10 +7223,8 @@
       <c r="E257" t="s">
         <v>198</v>
       </c>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -7390,10 +7240,8 @@
       <c r="E258" t="s">
         <v>198</v>
       </c>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -7409,10 +7257,8 @@
       <c r="E259" t="s">
         <v>198</v>
       </c>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -7428,10 +7274,8 @@
       <c r="E260" t="s">
         <v>198</v>
       </c>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -7447,10 +7291,8 @@
       <c r="E261" t="s">
         <v>198</v>
       </c>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-    </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -7466,10 +7308,8 @@
       <c r="E262" t="s">
         <v>198</v>
       </c>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-    </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -7485,10 +7325,8 @@
       <c r="E263" t="s">
         <v>198</v>
       </c>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-    </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -7504,10 +7342,8 @@
       <c r="E264" t="s">
         <v>198</v>
       </c>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-    </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -7523,10 +7359,8 @@
       <c r="E265" t="s">
         <v>198</v>
       </c>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-    </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -7542,10 +7376,8 @@
       <c r="E266" t="s">
         <v>198</v>
       </c>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-    </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -7561,10 +7393,8 @@
       <c r="E267" t="s">
         <v>198</v>
       </c>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-    </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -7580,10 +7410,8 @@
       <c r="E268" t="s">
         <v>198</v>
       </c>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-    </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -7599,10 +7427,8 @@
       <c r="E269" t="s">
         <v>198</v>
       </c>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-    </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -7618,10 +7444,8 @@
       <c r="E270" t="s">
         <v>198</v>
       </c>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-    </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -7637,10 +7461,8 @@
       <c r="E271" t="s">
         <v>198</v>
       </c>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -7656,10 +7478,8 @@
       <c r="E272" t="s">
         <v>290</v>
       </c>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -7675,10 +7495,8 @@
       <c r="E273" t="s">
         <v>290</v>
       </c>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -7694,10 +7512,8 @@
       <c r="E274" t="s">
         <v>290</v>
       </c>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -7713,10 +7529,8 @@
       <c r="E275" t="s">
         <v>290</v>
       </c>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -7732,10 +7546,8 @@
       <c r="E276" t="s">
         <v>290</v>
       </c>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-    </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -7751,10 +7563,14 @@
       <c r="E277" t="s">
         <v>290</v>
       </c>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-    </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G277">
+        <v>12.8</v>
+      </c>
+      <c r="H277">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -7770,10 +7586,14 @@
       <c r="E278" t="s">
         <v>290</v>
       </c>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-    </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G278">
+        <v>5.3</v>
+      </c>
+      <c r="H278">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -7789,10 +7609,14 @@
       <c r="E279" t="s">
         <v>290</v>
       </c>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-    </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G279">
+        <v>7.6</v>
+      </c>
+      <c r="H279">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -7808,10 +7632,14 @@
       <c r="E280" t="s">
         <v>290</v>
       </c>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-    </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G280">
+        <v>5.5</v>
+      </c>
+      <c r="H280">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -7827,8 +7655,12 @@
       <c r="E281" t="s">
         <v>290</v>
       </c>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
+      <c r="G281">
+        <v>7.2</v>
+      </c>
+      <c r="H281">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -7846,8 +7678,6 @@
       <c r="E282" t="s">
         <v>290</v>
       </c>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
     </row>
     <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -7865,8 +7695,6 @@
       <c r="E283" t="s">
         <v>290</v>
       </c>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
     </row>
     <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -7884,8 +7712,6 @@
       <c r="E284" t="s">
         <v>290</v>
       </c>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
     </row>
     <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -7903,10 +7729,8 @@
       <c r="E285" t="s">
         <v>290</v>
       </c>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -7922,10 +7746,8 @@
       <c r="E286" t="s">
         <v>290</v>
       </c>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -7941,10 +7763,8 @@
       <c r="E287" t="s">
         <v>290</v>
       </c>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -7960,10 +7780,8 @@
       <c r="E288" t="s">
         <v>290</v>
       </c>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -7979,10 +7797,8 @@
       <c r="E289" t="s">
         <v>290</v>
       </c>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -7998,10 +7814,8 @@
       <c r="E290" t="s">
         <v>290</v>
       </c>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -8017,10 +7831,14 @@
       <c r="E291" t="s">
         <v>290</v>
       </c>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G291">
+        <v>8.5</v>
+      </c>
+      <c r="H291">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -8036,10 +7854,14 @@
       <c r="E292" t="s">
         <v>290</v>
       </c>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-    </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G292">
+        <v>9.6</v>
+      </c>
+      <c r="H292">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -8055,10 +7877,14 @@
       <c r="E293" t="s">
         <v>290</v>
       </c>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-    </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G293">
+        <v>15.5</v>
+      </c>
+      <c r="H293">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -8074,10 +7900,14 @@
       <c r="E294" t="s">
         <v>290</v>
       </c>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-    </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G294">
+        <v>9.6</v>
+      </c>
+      <c r="H294">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -8093,8 +7923,12 @@
       <c r="E295" t="s">
         <v>290</v>
       </c>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
+      <c r="G295">
+        <v>5.9</v>
+      </c>
+      <c r="H295">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -8112,8 +7946,6 @@
       <c r="E296" t="s">
         <v>290</v>
       </c>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
     </row>
     <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -8131,8 +7963,6 @@
       <c r="E297" t="s">
         <v>290</v>
       </c>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
     </row>
     <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -8150,8 +7980,6 @@
       <c r="E298" t="s">
         <v>290</v>
       </c>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
     </row>
     <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -8169,8 +7997,6 @@
       <c r="E299" t="s">
         <v>290</v>
       </c>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
     </row>
     <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -8188,10 +8014,8 @@
       <c r="E300" t="s">
         <v>290</v>
       </c>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -8207,10 +8031,8 @@
       <c r="E301" t="s">
         <v>290</v>
       </c>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -8226,10 +8048,8 @@
       <c r="E302" t="s">
         <v>290</v>
       </c>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -8245,10 +8065,8 @@
       <c r="E303" t="s">
         <v>290</v>
       </c>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -8264,10 +8082,8 @@
       <c r="E304" t="s">
         <v>290</v>
       </c>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -8283,10 +8099,8 @@
       <c r="E305" t="s">
         <v>290</v>
       </c>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-    </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -8302,10 +8116,14 @@
       <c r="E306" t="s">
         <v>290</v>
       </c>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G306">
+        <v>8</v>
+      </c>
+      <c r="H306">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -8321,10 +8139,14 @@
       <c r="E307" t="s">
         <v>290</v>
       </c>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-    </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G307">
+        <v>14.2</v>
+      </c>
+      <c r="H307">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -8340,10 +8162,14 @@
       <c r="E308" t="s">
         <v>290</v>
       </c>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
-    </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G308">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H308">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -8359,10 +8185,14 @@
       <c r="E309" t="s">
         <v>290</v>
       </c>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-    </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G309">
+        <v>11.1</v>
+      </c>
+      <c r="H309">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -8378,8 +8208,12 @@
       <c r="E310" t="s">
         <v>290</v>
       </c>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
+      <c r="G310">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H310">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -8397,8 +8231,6 @@
       <c r="E311" t="s">
         <v>290</v>
       </c>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
     </row>
     <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -8416,8 +8248,6 @@
       <c r="E312" t="s">
         <v>290</v>
       </c>
-      <c r="G312" s="2"/>
-      <c r="H312" s="2"/>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -8435,8 +8265,6 @@
       <c r="E313" t="s">
         <v>290</v>
       </c>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
     </row>
     <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -8454,8 +8282,6 @@
       <c r="E314" t="s">
         <v>290</v>
       </c>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
     </row>
     <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -8473,10 +8299,8 @@
       <c r="E315" t="s">
         <v>290</v>
       </c>
-      <c r="G315" s="2"/>
-      <c r="H315" s="2"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -8492,10 +8316,8 @@
       <c r="E316" t="s">
         <v>290</v>
       </c>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -8511,10 +8333,8 @@
       <c r="E317" t="s">
         <v>290</v>
       </c>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -8530,10 +8350,8 @@
       <c r="E318" t="s">
         <v>290</v>
       </c>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -8549,10 +8367,8 @@
       <c r="E319" t="s">
         <v>290</v>
       </c>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -8568,10 +8384,8 @@
       <c r="E320" t="s">
         <v>290</v>
       </c>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
-    </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -8587,10 +8401,14 @@
       <c r="E321" t="s">
         <v>290</v>
       </c>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-    </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G321">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H321">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -8606,10 +8424,14 @@
       <c r="E322" t="s">
         <v>290</v>
       </c>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-    </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G322">
+        <v>6.7</v>
+      </c>
+      <c r="H322">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -8625,8 +8447,12 @@
       <c r="E323" t="s">
         <v>290</v>
       </c>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
+      <c r="G323">
+        <v>6.7</v>
+      </c>
+      <c r="H323">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -8644,8 +8470,6 @@
       <c r="E324" t="s">
         <v>290</v>
       </c>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
     </row>
     <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -8663,8 +8487,6 @@
       <c r="E325" t="s">
         <v>290</v>
       </c>
-      <c r="G325" s="2"/>
-      <c r="H325" s="2"/>
     </row>
     <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -8682,8 +8504,6 @@
       <c r="E326" t="s">
         <v>290</v>
       </c>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
     </row>
     <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -8701,8 +8521,6 @@
       <c r="E327" t="s">
         <v>290</v>
       </c>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
     </row>
     <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -8720,10 +8538,8 @@
       <c r="E328" t="s">
         <v>290</v>
       </c>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -8739,10 +8555,8 @@
       <c r="E329" t="s">
         <v>290</v>
       </c>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -8758,10 +8572,8 @@
       <c r="E330" t="s">
         <v>290</v>
       </c>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -8777,10 +8589,8 @@
       <c r="E331" t="s">
         <v>290</v>
       </c>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -8796,10 +8606,8 @@
       <c r="E332" t="s">
         <v>290</v>
       </c>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -8815,10 +8623,8 @@
       <c r="E333" t="s">
         <v>290</v>
       </c>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-    </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -8834,10 +8640,14 @@
       <c r="E334" t="s">
         <v>290</v>
       </c>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-    </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G334">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H334">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -8853,10 +8663,14 @@
       <c r="E335" t="s">
         <v>290</v>
       </c>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-    </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G335">
+        <v>10</v>
+      </c>
+      <c r="H335">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -8872,10 +8686,14 @@
       <c r="E336" t="s">
         <v>290</v>
       </c>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-    </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G336">
+        <v>11.8</v>
+      </c>
+      <c r="H336">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -8891,10 +8709,14 @@
       <c r="E337" t="s">
         <v>290</v>
       </c>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-    </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G337">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H337">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -8910,8 +8732,12 @@
       <c r="E338" t="s">
         <v>290</v>
       </c>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
+      <c r="G338">
+        <v>13.1</v>
+      </c>
+      <c r="H338">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -8929,8 +8755,6 @@
       <c r="E339" t="s">
         <v>290</v>
       </c>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
     </row>
     <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -8948,8 +8772,6 @@
       <c r="E340" t="s">
         <v>290</v>
       </c>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
     </row>
     <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -8967,8 +8789,6 @@
       <c r="E341" t="s">
         <v>290</v>
       </c>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
     </row>
     <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -8986,8 +8806,6 @@
       <c r="E342" t="s">
         <v>290</v>
       </c>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
     </row>
     <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -9005,10 +8823,8 @@
       <c r="E343" t="s">
         <v>290</v>
       </c>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -9024,10 +8840,8 @@
       <c r="E344" t="s">
         <v>290</v>
       </c>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -9043,10 +8857,8 @@
       <c r="E345" t="s">
         <v>290</v>
       </c>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -9062,10 +8874,8 @@
       <c r="E346" t="s">
         <v>290</v>
       </c>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -9081,10 +8891,8 @@
       <c r="E347" t="s">
         <v>290</v>
       </c>
-      <c r="G347" s="2"/>
-      <c r="H347" s="2"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -9100,10 +8908,8 @@
       <c r="E348" t="s">
         <v>290</v>
       </c>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
-    </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -9119,10 +8925,14 @@
       <c r="E349" t="s">
         <v>290</v>
       </c>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
-    </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G349">
+        <v>9.5</v>
+      </c>
+      <c r="H349">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -9138,10 +8948,14 @@
       <c r="E350" t="s">
         <v>290</v>
       </c>
-      <c r="G350" s="2"/>
-      <c r="H350" s="2"/>
-    </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G350">
+        <v>8.9</v>
+      </c>
+      <c r="H350">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -9157,10 +8971,14 @@
       <c r="E351" t="s">
         <v>290</v>
       </c>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
-    </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G351">
+        <v>17.7</v>
+      </c>
+      <c r="H351">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -9176,8 +8994,12 @@
       <c r="E352" t="s">
         <v>290</v>
       </c>
-      <c r="G352" s="2"/>
-      <c r="H352" s="2"/>
+      <c r="G352">
+        <v>12.4</v>
+      </c>
+      <c r="H352">
+        <v>34.299999999999997</v>
+      </c>
     </row>
     <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -9195,8 +9017,6 @@
       <c r="E353" t="s">
         <v>290</v>
       </c>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
     </row>
     <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -9214,8 +9034,6 @@
       <c r="E354" t="s">
         <v>290</v>
       </c>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
     </row>
     <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -9233,8 +9051,6 @@
       <c r="E355" t="s">
         <v>290</v>
       </c>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
     </row>
     <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -9252,8 +9068,6 @@
       <c r="E356" t="s">
         <v>290</v>
       </c>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
     </row>
     <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -9271,10 +9085,8 @@
       <c r="E357" t="s">
         <v>290</v>
       </c>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -9290,10 +9102,8 @@
       <c r="E358" t="s">
         <v>378</v>
       </c>
-      <c r="G358" s="2"/>
-      <c r="H358" s="2"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -9309,10 +9119,8 @@
       <c r="E359" t="s">
         <v>378</v>
       </c>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -9328,10 +9136,8 @@
       <c r="E360" t="s">
         <v>378</v>
       </c>
-      <c r="G360" s="2"/>
-      <c r="H360" s="2"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -9347,10 +9153,8 @@
       <c r="E361" t="s">
         <v>378</v>
       </c>
-      <c r="G361" s="2"/>
-      <c r="H361" s="2"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -9366,10 +9170,8 @@
       <c r="E362" t="s">
         <v>378</v>
       </c>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2"/>
-    </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -9385,10 +9187,14 @@
       <c r="E363" t="s">
         <v>378</v>
       </c>
-      <c r="G363" s="2"/>
-      <c r="H363" s="2"/>
-    </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G363">
+        <v>8</v>
+      </c>
+      <c r="H363">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -9404,10 +9210,14 @@
       <c r="E364" t="s">
         <v>378</v>
       </c>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2"/>
-    </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G364">
+        <v>7</v>
+      </c>
+      <c r="H364">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -9423,10 +9233,14 @@
       <c r="E365" t="s">
         <v>378</v>
       </c>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-    </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G365">
+        <v>13.8</v>
+      </c>
+      <c r="H365">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -9442,10 +9256,14 @@
       <c r="E366" t="s">
         <v>378</v>
       </c>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2"/>
-    </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G366">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H366">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -9461,8 +9279,12 @@
       <c r="E367" t="s">
         <v>378</v>
       </c>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
+      <c r="G367">
+        <v>12.8</v>
+      </c>
+      <c r="H367">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
@@ -9480,8 +9302,6 @@
       <c r="E368" t="s">
         <v>378</v>
       </c>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
     </row>
     <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
@@ -9499,8 +9319,6 @@
       <c r="E369" t="s">
         <v>378</v>
       </c>
-      <c r="G369" s="2"/>
-      <c r="H369" s="2"/>
     </row>
     <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
@@ -9518,8 +9336,6 @@
       <c r="E370" t="s">
         <v>378</v>
       </c>
-      <c r="G370" s="2"/>
-      <c r="H370" s="2"/>
     </row>
     <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
@@ -9537,8 +9353,6 @@
       <c r="E371" t="s">
         <v>378</v>
       </c>
-      <c r="G371" s="2"/>
-      <c r="H371" s="2"/>
     </row>
     <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
@@ -9556,10 +9370,8 @@
       <c r="E372" t="s">
         <v>378</v>
       </c>
-      <c r="G372" s="2"/>
-      <c r="H372" s="2"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -9575,10 +9387,8 @@
       <c r="E373" t="s">
         <v>378</v>
       </c>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -9594,10 +9404,8 @@
       <c r="E374" t="s">
         <v>378</v>
       </c>
-      <c r="G374" s="2"/>
-      <c r="H374" s="2"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -9613,10 +9421,8 @@
       <c r="E375" t="s">
         <v>378</v>
       </c>
-      <c r="G375" s="2"/>
-      <c r="H375" s="2"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -9632,10 +9438,8 @@
       <c r="E376" t="s">
         <v>378</v>
       </c>
-      <c r="G376" s="2"/>
-      <c r="H376" s="2"/>
-    </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -9651,10 +9455,14 @@
       <c r="E377" t="s">
         <v>378</v>
       </c>
-      <c r="G377" s="2"/>
-      <c r="H377" s="2"/>
-    </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G377">
+        <v>7.6</v>
+      </c>
+      <c r="H377">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -9670,10 +9478,14 @@
       <c r="E378" t="s">
         <v>378</v>
       </c>
-      <c r="G378" s="2"/>
-      <c r="H378" s="2"/>
-    </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G378">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H378">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -9689,10 +9501,14 @@
       <c r="E379" t="s">
         <v>378</v>
       </c>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-    </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G379">
+        <v>5.8</v>
+      </c>
+      <c r="H379">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -9708,10 +9524,14 @@
       <c r="E380" t="s">
         <v>378</v>
       </c>
-      <c r="G380" s="2"/>
-      <c r="H380" s="2"/>
-    </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G380">
+        <v>5.9</v>
+      </c>
+      <c r="H380">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -9727,8 +9547,12 @@
       <c r="E381" t="s">
         <v>378</v>
       </c>
-      <c r="G381" s="2"/>
-      <c r="H381" s="2"/>
+      <c r="G381">
+        <v>8</v>
+      </c>
+      <c r="H381">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -9746,8 +9570,6 @@
       <c r="E382" t="s">
         <v>378</v>
       </c>
-      <c r="G382" s="2"/>
-      <c r="H382" s="2"/>
     </row>
     <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -9765,8 +9587,6 @@
       <c r="E383" t="s">
         <v>378</v>
       </c>
-      <c r="G383" s="2"/>
-      <c r="H383" s="2"/>
     </row>
     <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -9784,8 +9604,6 @@
       <c r="E384" t="s">
         <v>378</v>
       </c>
-      <c r="G384" s="2"/>
-      <c r="H384" s="2"/>
     </row>
     <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
@@ -9803,10 +9621,8 @@
       <c r="E385" t="s">
         <v>378</v>
       </c>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -9822,10 +9638,8 @@
       <c r="E386" t="s">
         <v>378</v>
       </c>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -9841,10 +9655,8 @@
       <c r="E387" t="s">
         <v>378</v>
       </c>
-      <c r="G387" s="2"/>
-      <c r="H387" s="2"/>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -9860,10 +9672,8 @@
       <c r="E388" t="s">
         <v>378</v>
       </c>
-      <c r="G388" s="2"/>
-      <c r="H388" s="2"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -9879,10 +9689,8 @@
       <c r="E389" t="s">
         <v>378</v>
       </c>
-      <c r="G389" s="2"/>
-      <c r="H389" s="2"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -9898,10 +9706,8 @@
       <c r="E390" t="s">
         <v>378</v>
       </c>
-      <c r="G390" s="2"/>
-      <c r="H390" s="2"/>
-    </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -9917,10 +9723,14 @@
       <c r="E391" t="s">
         <v>378</v>
       </c>
-      <c r="G391" s="2"/>
-      <c r="H391" s="2"/>
-    </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G391">
+        <v>4.2</v>
+      </c>
+      <c r="H391">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -9936,10 +9746,14 @@
       <c r="E392" t="s">
         <v>378</v>
       </c>
-      <c r="G392" s="2"/>
-      <c r="H392" s="2"/>
-    </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G392">
+        <v>7.4</v>
+      </c>
+      <c r="H392">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -9955,10 +9769,14 @@
       <c r="E393" t="s">
         <v>378</v>
       </c>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-    </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G393">
+        <v>6.1</v>
+      </c>
+      <c r="H393">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -9974,8 +9792,12 @@
       <c r="E394" t="s">
         <v>378</v>
       </c>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
+      <c r="G394">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H394">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -9993,8 +9815,6 @@
       <c r="E395" t="s">
         <v>378</v>
       </c>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
     </row>
     <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
@@ -10012,8 +9832,6 @@
       <c r="E396" t="s">
         <v>378</v>
       </c>
-      <c r="G396" s="2"/>
-      <c r="H396" s="2"/>
     </row>
     <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -10031,8 +9849,6 @@
       <c r="E397" t="s">
         <v>378</v>
       </c>
-      <c r="G397" s="2"/>
-      <c r="H397" s="2"/>
     </row>
     <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
@@ -10050,8 +9866,6 @@
       <c r="E398" t="s">
         <v>378</v>
       </c>
-      <c r="G398" s="2"/>
-      <c r="H398" s="2"/>
     </row>
     <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
@@ -10069,10 +9883,8 @@
       <c r="E399" t="s">
         <v>378</v>
       </c>
-      <c r="G399" s="2"/>
-      <c r="H399" s="2"/>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -10088,10 +9900,8 @@
       <c r="E400" t="s">
         <v>378</v>
       </c>
-      <c r="G400" s="2"/>
-      <c r="H400" s="2"/>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -10107,10 +9917,8 @@
       <c r="E401" t="s">
         <v>378</v>
       </c>
-      <c r="G401" s="2"/>
-      <c r="H401" s="2"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -10126,10 +9934,8 @@
       <c r="E402" t="s">
         <v>378</v>
       </c>
-      <c r="G402" s="2"/>
-      <c r="H402" s="2"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -10145,10 +9951,8 @@
       <c r="E403" t="s">
         <v>378</v>
       </c>
-      <c r="G403" s="2"/>
-      <c r="H403" s="2"/>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -10164,10 +9968,8 @@
       <c r="E404" t="s">
         <v>378</v>
       </c>
-      <c r="G404" s="2"/>
-      <c r="H404" s="2"/>
-    </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -10183,10 +9985,14 @@
       <c r="E405" t="s">
         <v>378</v>
       </c>
-      <c r="G405" s="2"/>
-      <c r="H405" s="2"/>
-    </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G405">
+        <v>5.7</v>
+      </c>
+      <c r="H405">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -10202,10 +10008,14 @@
       <c r="E406" t="s">
         <v>378</v>
       </c>
-      <c r="G406" s="2"/>
-      <c r="H406" s="2"/>
-    </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G406">
+        <v>5</v>
+      </c>
+      <c r="H406">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -10221,10 +10031,14 @@
       <c r="E407" t="s">
         <v>378</v>
       </c>
-      <c r="G407" s="2"/>
-      <c r="H407" s="2"/>
-    </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G407">
+        <v>9.4</v>
+      </c>
+      <c r="H407">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -10240,8 +10054,12 @@
       <c r="E408" t="s">
         <v>378</v>
       </c>
-      <c r="G408" s="2"/>
-      <c r="H408" s="2"/>
+      <c r="G408">
+        <v>12.3</v>
+      </c>
+      <c r="H408">
+        <v>29.9</v>
+      </c>
     </row>
     <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
@@ -10259,8 +10077,6 @@
       <c r="E409" t="s">
         <v>378</v>
       </c>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
     </row>
     <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
@@ -10278,8 +10094,6 @@
       <c r="E410" t="s">
         <v>378</v>
       </c>
-      <c r="G410" s="2"/>
-      <c r="H410" s="2"/>
     </row>
     <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
@@ -10297,10 +10111,8 @@
       <c r="E411" t="s">
         <v>378</v>
       </c>
-      <c r="G411" s="2"/>
-      <c r="H411" s="2"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -10316,10 +10128,8 @@
       <c r="E412" t="s">
         <v>378</v>
       </c>
-      <c r="G412" s="2"/>
-      <c r="H412" s="2"/>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -10335,10 +10145,8 @@
       <c r="E413" t="s">
         <v>378</v>
       </c>
-      <c r="G413" s="2"/>
-      <c r="H413" s="2"/>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -10354,10 +10162,8 @@
       <c r="E414" t="s">
         <v>378</v>
       </c>
-      <c r="G414" s="2"/>
-      <c r="H414" s="2"/>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -10373,10 +10179,8 @@
       <c r="E415" t="s">
         <v>378</v>
       </c>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-    </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -10392,10 +10196,14 @@
       <c r="E416" t="s">
         <v>378</v>
       </c>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-    </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G416">
+        <v>10.6</v>
+      </c>
+      <c r="H416">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -10411,10 +10219,14 @@
       <c r="E417" t="s">
         <v>378</v>
       </c>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-    </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G417">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H417">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -10430,10 +10242,14 @@
       <c r="E418" t="s">
         <v>378</v>
       </c>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-    </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G418">
+        <v>6.5</v>
+      </c>
+      <c r="H418">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -10449,8 +10265,12 @@
       <c r="E419" t="s">
         <v>378</v>
       </c>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
+      <c r="G419">
+        <v>6.7</v>
+      </c>
+      <c r="H419">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
@@ -10468,8 +10288,6 @@
       <c r="E420" t="s">
         <v>378</v>
       </c>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
     </row>
     <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
@@ -10487,8 +10305,6 @@
       <c r="E421" t="s">
         <v>378</v>
       </c>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
     </row>
     <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
@@ -10506,8 +10322,6 @@
       <c r="E422" t="s">
         <v>378</v>
       </c>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
     </row>
     <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
@@ -10525,8 +10339,6 @@
       <c r="E423" t="s">
         <v>378</v>
       </c>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
     </row>
     <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
@@ -10544,10 +10356,8 @@
       <c r="E424" t="s">
         <v>378</v>
       </c>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -10563,10 +10373,8 @@
       <c r="E425" t="s">
         <v>378</v>
       </c>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -10582,10 +10390,8 @@
       <c r="E426" t="s">
         <v>378</v>
       </c>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -10601,10 +10407,8 @@
       <c r="E427" t="s">
         <v>378</v>
       </c>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -10620,10 +10424,8 @@
       <c r="E428" t="s">
         <v>378</v>
       </c>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -10639,10 +10441,8 @@
       <c r="E429" t="s">
         <v>378</v>
       </c>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-    </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -10658,10 +10458,14 @@
       <c r="E430" t="s">
         <v>378</v>
       </c>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-    </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G430">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H430">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -10677,10 +10481,14 @@
       <c r="E431" t="s">
         <v>378</v>
       </c>
-      <c r="G431" s="2"/>
-      <c r="H431" s="2"/>
-    </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G431" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -10696,8 +10504,12 @@
       <c r="E432" t="s">
         <v>378</v>
       </c>
-      <c r="G432" s="2"/>
-      <c r="H432" s="2"/>
+      <c r="G432">
+        <v>8.4</v>
+      </c>
+      <c r="H432">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
@@ -10715,8 +10527,6 @@
       <c r="E433" t="s">
         <v>378</v>
       </c>
-      <c r="G433" s="2"/>
-      <c r="H433" s="2"/>
     </row>
     <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
@@ -10734,8 +10544,6 @@
       <c r="E434" t="s">
         <v>378</v>
       </c>
-      <c r="G434" s="2"/>
-      <c r="H434" s="2"/>
     </row>
     <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
@@ -10753,8 +10561,6 @@
       <c r="E435" t="s">
         <v>378</v>
       </c>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
     </row>
     <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
@@ -10772,8 +10578,6 @@
       <c r="E436" t="s">
         <v>378</v>
       </c>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
     </row>
     <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
@@ -10791,10 +10595,8 @@
       <c r="E437" t="s">
         <v>378</v>
       </c>
-      <c r="G437" s="2"/>
-      <c r="H437" s="2"/>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -10810,10 +10612,8 @@
       <c r="E438" t="s">
         <v>460</v>
       </c>
-      <c r="G438" s="2"/>
-      <c r="H438" s="2"/>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -10829,10 +10629,8 @@
       <c r="E439" t="s">
         <v>460</v>
       </c>
-      <c r="G439" s="2"/>
-      <c r="H439" s="2"/>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -10848,10 +10646,8 @@
       <c r="E440" t="s">
         <v>460</v>
       </c>
-      <c r="G440" s="2"/>
-      <c r="H440" s="2"/>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -10867,10 +10663,8 @@
       <c r="E441" t="s">
         <v>460</v>
       </c>
-      <c r="G441" s="2"/>
-      <c r="H441" s="2"/>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -10886,10 +10680,8 @@
       <c r="E442" t="s">
         <v>460</v>
       </c>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
-    </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -10905,10 +10697,14 @@
       <c r="E443" t="s">
         <v>460</v>
       </c>
-      <c r="G443" s="2"/>
-      <c r="H443" s="2"/>
-    </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G443">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H443">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -10924,10 +10720,14 @@
       <c r="E444" t="s">
         <v>460</v>
       </c>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
-    </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G444">
+        <v>4.5</v>
+      </c>
+      <c r="H444">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -10943,10 +10743,14 @@
       <c r="E445" t="s">
         <v>460</v>
       </c>
-      <c r="G445" s="2"/>
-      <c r="H445" s="2"/>
-    </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G445">
+        <v>4.7</v>
+      </c>
+      <c r="H445">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -10962,10 +10766,14 @@
       <c r="E446" t="s">
         <v>460</v>
       </c>
-      <c r="G446" s="2"/>
-      <c r="H446" s="2"/>
-    </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G446">
+        <v>5.4</v>
+      </c>
+      <c r="H446">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -10981,8 +10789,12 @@
       <c r="E447" t="s">
         <v>460</v>
       </c>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
+      <c r="G447">
+        <v>6.3</v>
+      </c>
+      <c r="H447">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
@@ -11000,8 +10812,6 @@
       <c r="E448" t="s">
         <v>460</v>
       </c>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
     </row>
     <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
@@ -11019,8 +10829,6 @@
       <c r="E449" t="s">
         <v>460</v>
       </c>
-      <c r="G449" s="2"/>
-      <c r="H449" s="2"/>
     </row>
     <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -11038,8 +10846,6 @@
       <c r="E450" t="s">
         <v>460</v>
       </c>
-      <c r="G450" s="2"/>
-      <c r="H450" s="2"/>
     </row>
     <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -11057,8 +10863,6 @@
       <c r="E451" t="s">
         <v>460</v>
       </c>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
     </row>
     <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -11076,10 +10880,8 @@
       <c r="E452" t="s">
         <v>460</v>
       </c>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -11095,10 +10897,8 @@
       <c r="E453" t="s">
         <v>460</v>
       </c>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -11114,10 +10914,8 @@
       <c r="E454" t="s">
         <v>460</v>
       </c>
-      <c r="G454" s="2"/>
-      <c r="H454" s="2"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -11133,10 +10931,8 @@
       <c r="E455" t="s">
         <v>460</v>
       </c>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -11152,10 +10948,8 @@
       <c r="E456" t="s">
         <v>460</v>
       </c>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -11171,10 +10965,8 @@
       <c r="E457" t="s">
         <v>460</v>
       </c>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-    </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -11190,10 +10982,14 @@
       <c r="E458" t="s">
         <v>460</v>
       </c>
-      <c r="G458" s="2"/>
-      <c r="H458" s="2"/>
-    </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G458">
+        <v>4.3</v>
+      </c>
+      <c r="H458">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -11209,10 +11005,14 @@
       <c r="E459" t="s">
         <v>460</v>
       </c>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-    </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G459">
+        <v>15.2</v>
+      </c>
+      <c r="H459">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -11228,10 +11028,14 @@
       <c r="E460" t="s">
         <v>460</v>
       </c>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-    </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G460">
+        <v>3.7</v>
+      </c>
+      <c r="H460">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -11247,10 +11051,14 @@
       <c r="E461" t="s">
         <v>460</v>
       </c>
-      <c r="G461" s="2"/>
-      <c r="H461" s="2"/>
-    </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G461">
+        <v>4.2</v>
+      </c>
+      <c r="H461">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -11266,8 +11074,12 @@
       <c r="E462" t="s">
         <v>460</v>
       </c>
-      <c r="G462" s="2"/>
-      <c r="H462" s="2"/>
+      <c r="G462">
+        <v>4</v>
+      </c>
+      <c r="H462">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -11285,8 +11097,6 @@
       <c r="E463" t="s">
         <v>460</v>
       </c>
-      <c r="G463" s="2"/>
-      <c r="H463" s="2"/>
     </row>
     <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -11304,8 +11114,6 @@
       <c r="E464" t="s">
         <v>460</v>
       </c>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
     </row>
     <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
@@ -11323,8 +11131,6 @@
       <c r="E465" t="s">
         <v>460</v>
       </c>
-      <c r="G465" s="2"/>
-      <c r="H465" s="2"/>
     </row>
     <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
@@ -11342,8 +11148,6 @@
       <c r="E466" t="s">
         <v>460</v>
       </c>
-      <c r="G466" s="2"/>
-      <c r="H466" s="2"/>
     </row>
     <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -11361,10 +11165,8 @@
       <c r="E467" t="s">
         <v>460</v>
       </c>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -11380,10 +11182,8 @@
       <c r="E468" t="s">
         <v>460</v>
       </c>
-      <c r="G468" s="2"/>
-      <c r="H468" s="2"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -11399,10 +11199,8 @@
       <c r="E469" t="s">
         <v>460</v>
       </c>
-      <c r="G469" s="2"/>
-      <c r="H469" s="2"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -11418,10 +11216,8 @@
       <c r="E470" t="s">
         <v>460</v>
       </c>
-      <c r="G470" s="2"/>
-      <c r="H470" s="2"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -11437,10 +11233,8 @@
       <c r="E471" t="s">
         <v>460</v>
       </c>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -11456,10 +11250,8 @@
       <c r="E472" t="s">
         <v>460</v>
       </c>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-    </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -11475,10 +11267,14 @@
       <c r="E473" t="s">
         <v>460</v>
       </c>
-      <c r="G473" s="2"/>
-      <c r="H473" s="2"/>
-    </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G473">
+        <v>4.5</v>
+      </c>
+      <c r="H473">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -11494,10 +11290,14 @@
       <c r="E474" t="s">
         <v>460</v>
       </c>
-      <c r="G474" s="2"/>
-      <c r="H474" s="2"/>
-    </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G474">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H474">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -11513,10 +11313,14 @@
       <c r="E475" t="s">
         <v>460</v>
       </c>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-    </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G475">
+        <v>11.2</v>
+      </c>
+      <c r="H475">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -11532,10 +11336,14 @@
       <c r="E476" t="s">
         <v>460</v>
       </c>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-    </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G476">
+        <v>5.4</v>
+      </c>
+      <c r="H476">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -11551,8 +11359,12 @@
       <c r="E477" t="s">
         <v>460</v>
       </c>
-      <c r="G477" s="2"/>
-      <c r="H477" s="2"/>
+      <c r="G477">
+        <v>4.7</v>
+      </c>
+      <c r="H477">
+        <v>19.399999999999999</v>
+      </c>
     </row>
     <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
@@ -11570,8 +11382,6 @@
       <c r="E478" t="s">
         <v>460</v>
       </c>
-      <c r="G478" s="2"/>
-      <c r="H478" s="2"/>
     </row>
     <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
@@ -11589,8 +11399,6 @@
       <c r="E479" t="s">
         <v>460</v>
       </c>
-      <c r="G479" s="2"/>
-      <c r="H479" s="2"/>
     </row>
     <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
@@ -11608,8 +11416,6 @@
       <c r="E480" t="s">
         <v>460</v>
       </c>
-      <c r="G480" s="2"/>
-      <c r="H480" s="2"/>
     </row>
     <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -11627,8 +11433,6 @@
       <c r="E481" t="s">
         <v>460</v>
       </c>
-      <c r="G481" s="2"/>
-      <c r="H481" s="2"/>
     </row>
     <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -11646,10 +11450,8 @@
       <c r="E482" t="s">
         <v>460</v>
       </c>
-      <c r="G482" s="2"/>
-      <c r="H482" s="2"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -11665,10 +11467,8 @@
       <c r="E483" t="s">
         <v>460</v>
       </c>
-      <c r="G483" s="2"/>
-      <c r="H483" s="2"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -11684,10 +11484,8 @@
       <c r="E484" t="s">
         <v>460</v>
       </c>
-      <c r="G484" s="2"/>
-      <c r="H484" s="2"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -11703,10 +11501,8 @@
       <c r="E485" t="s">
         <v>460</v>
       </c>
-      <c r="G485" s="2"/>
-      <c r="H485" s="2"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -11722,10 +11518,8 @@
       <c r="E486" t="s">
         <v>460</v>
       </c>
-      <c r="G486" s="2"/>
-      <c r="H486" s="2"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -11741,10 +11535,8 @@
       <c r="E487" t="s">
         <v>460</v>
       </c>
-      <c r="G487" s="2"/>
-      <c r="H487" s="2"/>
-    </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -11760,10 +11552,14 @@
       <c r="E488" t="s">
         <v>460</v>
       </c>
-      <c r="G488" s="2"/>
-      <c r="H488" s="2"/>
-    </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G488">
+        <v>7.9</v>
+      </c>
+      <c r="H488">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -11779,10 +11575,14 @@
       <c r="E489" t="s">
         <v>460</v>
       </c>
-      <c r="G489" s="2"/>
-      <c r="H489" s="2"/>
-    </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G489">
+        <v>9.1</v>
+      </c>
+      <c r="H489">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -11798,10 +11598,14 @@
       <c r="E490" t="s">
         <v>460</v>
       </c>
-      <c r="G490" s="2"/>
-      <c r="H490" s="2"/>
-    </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G490">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H490">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -11817,10 +11621,14 @@
       <c r="E491" t="s">
         <v>460</v>
       </c>
-      <c r="G491" s="2"/>
-      <c r="H491" s="2"/>
-    </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G491">
+        <v>3.1</v>
+      </c>
+      <c r="H491">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -11836,8 +11644,12 @@
       <c r="E492" t="s">
         <v>460</v>
       </c>
-      <c r="G492" s="2"/>
-      <c r="H492" s="2"/>
+      <c r="G492">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H492">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
@@ -11855,8 +11667,6 @@
       <c r="E493" t="s">
         <v>460</v>
       </c>
-      <c r="G493" s="2"/>
-      <c r="H493" s="2"/>
     </row>
     <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -11874,8 +11684,6 @@
       <c r="E494" t="s">
         <v>460</v>
       </c>
-      <c r="G494" s="2"/>
-      <c r="H494" s="2"/>
     </row>
     <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -11893,8 +11701,6 @@
       <c r="E495" t="s">
         <v>460</v>
       </c>
-      <c r="G495" s="2"/>
-      <c r="H495" s="2"/>
     </row>
     <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -11912,8 +11718,6 @@
       <c r="E496" t="s">
         <v>460</v>
       </c>
-      <c r="G496" s="2"/>
-      <c r="H496" s="2"/>
     </row>
     <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -11931,10 +11735,8 @@
       <c r="E497" t="s">
         <v>460</v>
       </c>
-      <c r="G497" s="2"/>
-      <c r="H497" s="2"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -11950,10 +11752,8 @@
       <c r="E498" t="s">
         <v>460</v>
       </c>
-      <c r="G498" s="2"/>
-      <c r="H498" s="2"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -11969,10 +11769,8 @@
       <c r="E499" t="s">
         <v>460</v>
       </c>
-      <c r="G499" s="2"/>
-      <c r="H499" s="2"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -11988,10 +11786,8 @@
       <c r="E500" t="s">
         <v>460</v>
       </c>
-      <c r="G500" s="2"/>
-      <c r="H500" s="2"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -12007,10 +11803,8 @@
       <c r="E501" t="s">
         <v>460</v>
       </c>
-      <c r="G501" s="2"/>
-      <c r="H501" s="2"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -12026,10 +11820,8 @@
       <c r="E502" t="s">
         <v>460</v>
       </c>
-      <c r="G502" s="2"/>
-      <c r="H502" s="2"/>
-    </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -12045,10 +11837,14 @@
       <c r="E503" t="s">
         <v>460</v>
       </c>
-      <c r="G503" s="2"/>
-      <c r="H503" s="2"/>
-    </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G503">
+        <v>6.2</v>
+      </c>
+      <c r="H503">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -12064,10 +11860,14 @@
       <c r="E504" t="s">
         <v>460</v>
       </c>
-      <c r="G504" s="2"/>
-      <c r="H504" s="2"/>
-    </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G504">
+        <v>4</v>
+      </c>
+      <c r="H504">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -12083,10 +11883,14 @@
       <c r="E505" t="s">
         <v>460</v>
       </c>
-      <c r="G505" s="2"/>
-      <c r="H505" s="2"/>
-    </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G505">
+        <v>3.5</v>
+      </c>
+      <c r="H505">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -12102,10 +11906,14 @@
       <c r="E506" t="s">
         <v>460</v>
       </c>
-      <c r="G506" s="2"/>
-      <c r="H506" s="2"/>
-    </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G506">
+        <v>6.3</v>
+      </c>
+      <c r="H506">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -12121,8 +11929,12 @@
       <c r="E507" t="s">
         <v>460</v>
       </c>
-      <c r="G507" s="2"/>
-      <c r="H507" s="2"/>
+      <c r="G507">
+        <v>5.7</v>
+      </c>
+      <c r="H507">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -12140,8 +11952,6 @@
       <c r="E508" t="s">
         <v>460</v>
       </c>
-      <c r="G508" s="2"/>
-      <c r="H508" s="2"/>
     </row>
     <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -12159,8 +11969,6 @@
       <c r="E509" t="s">
         <v>460</v>
       </c>
-      <c r="G509" s="2"/>
-      <c r="H509" s="2"/>
     </row>
     <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -12178,8 +11986,6 @@
       <c r="E510" t="s">
         <v>460</v>
       </c>
-      <c r="G510" s="2"/>
-      <c r="H510" s="2"/>
     </row>
     <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -12197,8 +12003,6 @@
       <c r="E511" t="s">
         <v>460</v>
       </c>
-      <c r="G511" s="2"/>
-      <c r="H511" s="2"/>
     </row>
     <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
@@ -12216,10 +12020,8 @@
       <c r="E512" t="s">
         <v>460</v>
       </c>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -12235,10 +12037,8 @@
       <c r="E513" t="s">
         <v>460</v>
       </c>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -12254,10 +12054,8 @@
       <c r="E514" t="s">
         <v>460</v>
       </c>
-      <c r="G514" s="2"/>
-      <c r="H514" s="2"/>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -12273,10 +12071,8 @@
       <c r="E515" t="s">
         <v>460</v>
       </c>
-      <c r="G515" s="2"/>
-      <c r="H515" s="2"/>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -12292,10 +12088,8 @@
       <c r="E516" t="s">
         <v>460</v>
       </c>
-      <c r="G516" s="2"/>
-      <c r="H516" s="2"/>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -12311,10 +12105,8 @@
       <c r="E517" t="s">
         <v>460</v>
       </c>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-    </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -12330,10 +12122,14 @@
       <c r="E518" t="s">
         <v>460</v>
       </c>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-    </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G518">
+        <v>7.8</v>
+      </c>
+      <c r="H518">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -12349,10 +12145,14 @@
       <c r="E519" t="s">
         <v>460</v>
       </c>
-      <c r="G519" s="2"/>
-      <c r="H519" s="2"/>
-    </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G519">
+        <v>3.3</v>
+      </c>
+      <c r="H519">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -12368,10 +12168,14 @@
       <c r="E520" t="s">
         <v>460</v>
       </c>
-      <c r="G520" s="2"/>
-      <c r="H520" s="2"/>
-    </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G520">
+        <v>2.7</v>
+      </c>
+      <c r="H520">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -12387,10 +12191,14 @@
       <c r="E521" t="s">
         <v>460</v>
       </c>
-      <c r="G521" s="2"/>
-      <c r="H521" s="2"/>
-    </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G521">
+        <v>3.8</v>
+      </c>
+      <c r="H521">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -12406,8 +12214,12 @@
       <c r="E522" t="s">
         <v>460</v>
       </c>
-      <c r="G522" s="2"/>
-      <c r="H522" s="2"/>
+      <c r="G522">
+        <v>3.9</v>
+      </c>
+      <c r="H522">
+        <v>14</v>
+      </c>
     </row>
     <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -12425,8 +12237,6 @@
       <c r="E523" t="s">
         <v>460</v>
       </c>
-      <c r="G523" s="2"/>
-      <c r="H523" s="2"/>
     </row>
     <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -12444,8 +12254,6 @@
       <c r="E524" t="s">
         <v>460</v>
       </c>
-      <c r="G524" s="2"/>
-      <c r="H524" s="2"/>
     </row>
     <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -12463,8 +12271,6 @@
       <c r="E525" t="s">
         <v>460</v>
       </c>
-      <c r="G525" s="2"/>
-      <c r="H525" s="2"/>
     </row>
     <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -12482,8 +12288,6 @@
       <c r="E526" t="s">
         <v>460</v>
       </c>
-      <c r="G526" s="2"/>
-      <c r="H526" s="2"/>
     </row>
     <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -12501,10 +12305,8 @@
       <c r="E527" t="s">
         <v>460</v>
       </c>
-      <c r="G527" s="2"/>
-      <c r="H527" s="2"/>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -12520,10 +12322,8 @@
       <c r="E528" t="s">
         <v>552</v>
       </c>
-      <c r="G528" s="2"/>
-      <c r="H528" s="2"/>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>553</v>
       </c>
@@ -12539,10 +12339,8 @@
       <c r="E529" t="s">
         <v>552</v>
       </c>
-      <c r="G529" s="2"/>
-      <c r="H529" s="2"/>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>554</v>
       </c>
@@ -12558,10 +12356,8 @@
       <c r="E530" t="s">
         <v>552</v>
       </c>
-      <c r="G530" s="2"/>
-      <c r="H530" s="2"/>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>555</v>
       </c>
@@ -12577,10 +12373,8 @@
       <c r="E531" t="s">
         <v>552</v>
       </c>
-      <c r="G531" s="2"/>
-      <c r="H531" s="2"/>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -12596,10 +12390,8 @@
       <c r="E532" t="s">
         <v>552</v>
       </c>
-      <c r="G532" s="2"/>
-      <c r="H532" s="2"/>
-    </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -12615,10 +12407,8 @@
       <c r="E533" t="s">
         <v>552</v>
       </c>
-      <c r="G533" s="2"/>
-      <c r="H533" s="2"/>
-    </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -12634,10 +12424,8 @@
       <c r="E534" t="s">
         <v>552</v>
       </c>
-      <c r="G534" s="2"/>
-      <c r="H534" s="2"/>
-    </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -12653,10 +12441,8 @@
       <c r="E535" t="s">
         <v>552</v>
       </c>
-      <c r="G535" s="2"/>
-      <c r="H535" s="2"/>
-    </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -12672,10 +12458,8 @@
       <c r="E536" t="s">
         <v>552</v>
       </c>
-      <c r="G536" s="2"/>
-      <c r="H536" s="2"/>
-    </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -12691,10 +12475,8 @@
       <c r="E537" t="s">
         <v>552</v>
       </c>
-      <c r="G537" s="2"/>
-      <c r="H537" s="2"/>
-    </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -12710,10 +12492,8 @@
       <c r="E538" t="s">
         <v>552</v>
       </c>
-      <c r="G538" s="2"/>
-      <c r="H538" s="2"/>
-    </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -12729,10 +12509,8 @@
       <c r="E539" t="s">
         <v>552</v>
       </c>
-      <c r="G539" s="2"/>
-      <c r="H539" s="2"/>
-    </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -12748,10 +12526,8 @@
       <c r="E540" t="s">
         <v>552</v>
       </c>
-      <c r="G540" s="2"/>
-      <c r="H540" s="2"/>
-    </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -12767,10 +12543,8 @@
       <c r="E541" t="s">
         <v>552</v>
       </c>
-      <c r="G541" s="2"/>
-      <c r="H541" s="2"/>
-    </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -12786,10 +12560,8 @@
       <c r="E542" t="s">
         <v>552</v>
       </c>
-      <c r="G542" s="2"/>
-      <c r="H542" s="2"/>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -12805,10 +12577,8 @@
       <c r="E543" t="s">
         <v>552</v>
       </c>
-      <c r="G543" s="2"/>
-      <c r="H543" s="2"/>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -12824,10 +12594,8 @@
       <c r="E544" t="s">
         <v>552</v>
       </c>
-      <c r="G544" s="2"/>
-      <c r="H544" s="2"/>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -12843,10 +12611,8 @@
       <c r="E545" t="s">
         <v>552</v>
       </c>
-      <c r="G545" s="2"/>
-      <c r="H545" s="2"/>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -12862,10 +12628,8 @@
       <c r="E546" t="s">
         <v>552</v>
       </c>
-      <c r="G546" s="2"/>
-      <c r="H546" s="2"/>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -12881,10 +12645,8 @@
       <c r="E547" t="s">
         <v>552</v>
       </c>
-      <c r="G547" s="2"/>
-      <c r="H547" s="2"/>
-    </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -12900,10 +12662,8 @@
       <c r="E548" t="s">
         <v>552</v>
       </c>
-      <c r="G548" s="2"/>
-      <c r="H548" s="2"/>
-    </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -12919,10 +12679,8 @@
       <c r="E549" t="s">
         <v>552</v>
       </c>
-      <c r="G549" s="2"/>
-      <c r="H549" s="2"/>
-    </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -12938,10 +12696,8 @@
       <c r="E550" t="s">
         <v>552</v>
       </c>
-      <c r="G550" s="2"/>
-      <c r="H550" s="2"/>
-    </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -12957,10 +12713,8 @@
       <c r="E551" t="s">
         <v>552</v>
       </c>
-      <c r="G551" s="2"/>
-      <c r="H551" s="2"/>
-    </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -12976,10 +12730,8 @@
       <c r="E552" t="s">
         <v>552</v>
       </c>
-      <c r="G552" s="2"/>
-      <c r="H552" s="2"/>
-    </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -12995,10 +12747,8 @@
       <c r="E553" t="s">
         <v>552</v>
       </c>
-      <c r="G553" s="2"/>
-      <c r="H553" s="2"/>
-    </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -13014,10 +12764,8 @@
       <c r="E554" t="s">
         <v>552</v>
       </c>
-      <c r="G554" s="2"/>
-      <c r="H554" s="2"/>
-    </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -13033,10 +12781,8 @@
       <c r="E555" t="s">
         <v>552</v>
       </c>
-      <c r="G555" s="2"/>
-      <c r="H555" s="2"/>
-    </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -13052,10 +12798,8 @@
       <c r="E556" t="s">
         <v>552</v>
       </c>
-      <c r="G556" s="2"/>
-      <c r="H556" s="2"/>
-    </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -13071,10 +12815,8 @@
       <c r="E557" t="s">
         <v>552</v>
       </c>
-      <c r="G557" s="2"/>
-      <c r="H557" s="2"/>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -13090,10 +12832,8 @@
       <c r="E558" t="s">
         <v>552</v>
       </c>
-      <c r="G558" s="2"/>
-      <c r="H558" s="2"/>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -13109,10 +12849,8 @@
       <c r="E559" t="s">
         <v>552</v>
       </c>
-      <c r="G559" s="2"/>
-      <c r="H559" s="2"/>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -13128,10 +12866,8 @@
       <c r="E560" t="s">
         <v>552</v>
       </c>
-      <c r="G560" s="2"/>
-      <c r="H560" s="2"/>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -13147,10 +12883,8 @@
       <c r="E561" t="s">
         <v>552</v>
       </c>
-      <c r="G561" s="2"/>
-      <c r="H561" s="2"/>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -13166,10 +12900,8 @@
       <c r="E562" t="s">
         <v>552</v>
       </c>
-      <c r="G562" s="2"/>
-      <c r="H562" s="2"/>
-    </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -13185,10 +12917,8 @@
       <c r="E563" t="s">
         <v>552</v>
       </c>
-      <c r="G563" s="2"/>
-      <c r="H563" s="2"/>
-    </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -13204,10 +12934,8 @@
       <c r="E564" t="s">
         <v>552</v>
       </c>
-      <c r="G564" s="2"/>
-      <c r="H564" s="2"/>
-    </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -13223,10 +12951,8 @@
       <c r="E565" t="s">
         <v>552</v>
       </c>
-      <c r="G565" s="2"/>
-      <c r="H565" s="2"/>
-    </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -13242,10 +12968,8 @@
       <c r="E566" t="s">
         <v>552</v>
       </c>
-      <c r="G566" s="2"/>
-      <c r="H566" s="2"/>
-    </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -13261,10 +12985,8 @@
       <c r="E567" t="s">
         <v>552</v>
       </c>
-      <c r="G567" s="2"/>
-      <c r="H567" s="2"/>
-    </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -13280,10 +13002,8 @@
       <c r="E568" t="s">
         <v>552</v>
       </c>
-      <c r="G568" s="2"/>
-      <c r="H568" s="2"/>
-    </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -13299,10 +13019,8 @@
       <c r="E569" t="s">
         <v>552</v>
       </c>
-      <c r="G569" s="2"/>
-      <c r="H569" s="2"/>
-    </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -13318,10 +13036,8 @@
       <c r="E570" t="s">
         <v>552</v>
       </c>
-      <c r="G570" s="2"/>
-      <c r="H570" s="2"/>
-    </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -13337,10 +13053,8 @@
       <c r="E571" t="s">
         <v>552</v>
       </c>
-      <c r="G571" s="2"/>
-      <c r="H571" s="2"/>
-    </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -13356,10 +13070,8 @@
       <c r="E572" t="s">
         <v>552</v>
       </c>
-      <c r="G572" s="2"/>
-      <c r="H572" s="2"/>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -13375,10 +13087,8 @@
       <c r="E573" t="s">
         <v>552</v>
       </c>
-      <c r="G573" s="2"/>
-      <c r="H573" s="2"/>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -13394,10 +13104,8 @@
       <c r="E574" t="s">
         <v>552</v>
       </c>
-      <c r="G574" s="2"/>
-      <c r="H574" s="2"/>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -13413,10 +13121,8 @@
       <c r="E575" t="s">
         <v>552</v>
       </c>
-      <c r="G575" s="2"/>
-      <c r="H575" s="2"/>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -13432,10 +13138,8 @@
       <c r="E576" t="s">
         <v>552</v>
       </c>
-      <c r="G576" s="2"/>
-      <c r="H576" s="2"/>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -13451,10 +13155,8 @@
       <c r="E577" t="s">
         <v>552</v>
       </c>
-      <c r="G577" s="2"/>
-      <c r="H577" s="2"/>
-    </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -13470,10 +13172,8 @@
       <c r="E578" t="s">
         <v>552</v>
       </c>
-      <c r="G578" s="2"/>
-      <c r="H578" s="2"/>
-    </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -13489,10 +13189,8 @@
       <c r="E579" t="s">
         <v>552</v>
       </c>
-      <c r="G579" s="2"/>
-      <c r="H579" s="2"/>
-    </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -13508,10 +13206,8 @@
       <c r="E580" t="s">
         <v>552</v>
       </c>
-      <c r="G580" s="2"/>
-      <c r="H580" s="2"/>
-    </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -13527,10 +13223,8 @@
       <c r="E581" t="s">
         <v>552</v>
       </c>
-      <c r="G581" s="2"/>
-      <c r="H581" s="2"/>
-    </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -13546,10 +13240,8 @@
       <c r="E582" t="s">
         <v>552</v>
       </c>
-      <c r="G582" s="2"/>
-      <c r="H582" s="2"/>
-    </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -13565,10 +13257,8 @@
       <c r="E583" t="s">
         <v>552</v>
       </c>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-    </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -13584,10 +13274,8 @@
       <c r="E584" t="s">
         <v>552</v>
       </c>
-      <c r="G584" s="2"/>
-      <c r="H584" s="2"/>
-    </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -13603,10 +13291,8 @@
       <c r="E585" t="s">
         <v>552</v>
       </c>
-      <c r="G585" s="2"/>
-      <c r="H585" s="2"/>
-    </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -13622,10 +13308,8 @@
       <c r="E586" t="s">
         <v>552</v>
       </c>
-      <c r="G586" s="2"/>
-      <c r="H586" s="2"/>
-    </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -13641,10 +13325,8 @@
       <c r="E587" t="s">
         <v>552</v>
       </c>
-      <c r="G587" s="2"/>
-      <c r="H587" s="2"/>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -13660,10 +13342,8 @@
       <c r="E588" t="s">
         <v>552</v>
       </c>
-      <c r="G588" s="2"/>
-      <c r="H588" s="2"/>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -13679,10 +13359,8 @@
       <c r="E589" t="s">
         <v>552</v>
       </c>
-      <c r="G589" s="2"/>
-      <c r="H589" s="2"/>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -13698,10 +13376,8 @@
       <c r="E590" t="s">
         <v>552</v>
       </c>
-      <c r="G590" s="2"/>
-      <c r="H590" s="2"/>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -13717,10 +13393,8 @@
       <c r="E591" t="s">
         <v>552</v>
       </c>
-      <c r="G591" s="2"/>
-      <c r="H591" s="2"/>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -13736,10 +13410,8 @@
       <c r="E592" t="s">
         <v>552</v>
       </c>
-      <c r="G592" s="2"/>
-      <c r="H592" s="2"/>
-    </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -13755,10 +13427,8 @@
       <c r="E593" t="s">
         <v>552</v>
       </c>
-      <c r="G593" s="2"/>
-      <c r="H593" s="2"/>
-    </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -13774,10 +13444,8 @@
       <c r="E594" t="s">
         <v>552</v>
       </c>
-      <c r="G594" s="2"/>
-      <c r="H594" s="2"/>
-    </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -13793,10 +13461,8 @@
       <c r="E595" t="s">
         <v>552</v>
       </c>
-      <c r="G595" s="2"/>
-      <c r="H595" s="2"/>
-    </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -13812,10 +13478,8 @@
       <c r="E596" t="s">
         <v>552</v>
       </c>
-      <c r="G596" s="2"/>
-      <c r="H596" s="2"/>
-    </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -13831,10 +13495,8 @@
       <c r="E597" t="s">
         <v>552</v>
       </c>
-      <c r="G597" s="2"/>
-      <c r="H597" s="2"/>
-    </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -13850,10 +13512,8 @@
       <c r="E598" t="s">
         <v>552</v>
       </c>
-      <c r="G598" s="2"/>
-      <c r="H598" s="2"/>
-    </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -13869,10 +13529,8 @@
       <c r="E599" t="s">
         <v>552</v>
       </c>
-      <c r="G599" s="2"/>
-      <c r="H599" s="2"/>
-    </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -13888,10 +13546,8 @@
       <c r="E600" t="s">
         <v>552</v>
       </c>
-      <c r="G600" s="2"/>
-      <c r="H600" s="2"/>
-    </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -13907,10 +13563,8 @@
       <c r="E601" t="s">
         <v>552</v>
       </c>
-      <c r="G601" s="2"/>
-      <c r="H601" s="2"/>
-    </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -13926,10 +13580,8 @@
       <c r="E602" t="s">
         <v>552</v>
       </c>
-      <c r="G602" s="2"/>
-      <c r="H602" s="2"/>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -13945,10 +13597,8 @@
       <c r="E603" t="s">
         <v>552</v>
       </c>
-      <c r="G603" s="2"/>
-      <c r="H603" s="2"/>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -13964,10 +13614,8 @@
       <c r="E604" t="s">
         <v>552</v>
       </c>
-      <c r="G604" s="2"/>
-      <c r="H604" s="2"/>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -13983,10 +13631,8 @@
       <c r="E605" t="s">
         <v>552</v>
       </c>
-      <c r="G605" s="2"/>
-      <c r="H605" s="2"/>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -14002,10 +13648,8 @@
       <c r="E606" t="s">
         <v>552</v>
       </c>
-      <c r="G606" s="2"/>
-      <c r="H606" s="2"/>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -14021,10 +13665,8 @@
       <c r="E607" t="s">
         <v>552</v>
       </c>
-      <c r="G607" s="2"/>
-      <c r="H607" s="2"/>
-    </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -14040,10 +13682,8 @@
       <c r="E608" t="s">
         <v>552</v>
       </c>
-      <c r="G608" s="2"/>
-      <c r="H608" s="2"/>
-    </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -14059,10 +13699,8 @@
       <c r="E609" t="s">
         <v>552</v>
       </c>
-      <c r="G609" s="2"/>
-      <c r="H609" s="2"/>
-    </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -14078,10 +13716,8 @@
       <c r="E610" t="s">
         <v>552</v>
       </c>
-      <c r="G610" s="2"/>
-      <c r="H610" s="2"/>
-    </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -14097,10 +13733,8 @@
       <c r="E611" t="s">
         <v>552</v>
       </c>
-      <c r="G611" s="2"/>
-      <c r="H611" s="2"/>
-    </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -14116,10 +13750,8 @@
       <c r="E612" t="s">
         <v>552</v>
       </c>
-      <c r="G612" s="2"/>
-      <c r="H612" s="2"/>
-    </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -14135,10 +13767,8 @@
       <c r="E613" t="s">
         <v>552</v>
       </c>
-      <c r="G613" s="2"/>
-      <c r="H613" s="2"/>
-    </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -14154,10 +13784,8 @@
       <c r="E614" t="s">
         <v>552</v>
       </c>
-      <c r="G614" s="2"/>
-      <c r="H614" s="2"/>
-    </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -14173,10 +13801,8 @@
       <c r="E615" t="s">
         <v>552</v>
       </c>
-      <c r="G615" s="2"/>
-      <c r="H615" s="2"/>
-    </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -14192,10 +13818,8 @@
       <c r="E616" t="s">
         <v>552</v>
       </c>
-      <c r="G616" s="2"/>
-      <c r="H616" s="2"/>
-    </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -14211,8 +13835,6 @@
       <c r="E617" t="s">
         <v>552</v>
       </c>
-      <c r="G617" s="2"/>
-      <c r="H617" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
